--- a/model_exports/labels/2.0_True_False_9_1.xlsx
+++ b/model_exports/labels/2.0_True_False_9_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,50 +453,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-508961106849574912</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-509046359354511360</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-509083951655174144</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,20 +531,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-509100730960314368</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-509131102796414976</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,33 +557,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-509142523403862017</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-509208349511262208</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-509223264921878528</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-509224131880300544</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -622,20 +622,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-573511311906115584</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-573530576818434048</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,20 +661,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-610974241895354368</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,33 +700,33 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-706805466739949568</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-977115036585021440</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,24 +778,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,50 +804,50 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-683960479224586240</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-684033292694327296</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-684082364117585920</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -856,33 +856,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-684154242035089408</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-894637864561987584</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-894643508547526657</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,46 +921,46 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-894960674811596800</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-894974152540553216</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-894976401597763584</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-895262760954736640</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,46 +986,46 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-956711426009202688</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1036653090664075265</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,20 +1051,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1036716876020285440</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1037295289206546433</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1037346167451992064</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,59 +1090,59 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-1037351232451608577</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-1037351271697657857</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-1037367364231344128</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1037535909296709632</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,20 +1181,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,50 +1207,50 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-503508088964800513</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-503608708635844608</t>
+          <t>t-606774570255654912</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -1259,33 +1259,33 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-608562753129840640</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-753345702428827652</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-753345808620105728</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-753350269518409728</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-744529744385892352</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-744534982144757760</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-765818303898058752</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-1017282491193782272</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,24 +1493,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1519,24 +1519,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-618483539777093632</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,24 +1558,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,46 +1584,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1662,46 +1662,46 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-917079758076370946</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-984799310717030402</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-985113601743704064</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-985197038014001152</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,20 +1740,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-832310546871484416</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-858145943971037184</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-858516314167627776</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-840253641885913088</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,24 +1805,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-868226298719633408</t>
+          <t>t-1005217349610426371</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-978735824383590400</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -1922,85 +1922,85 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-630358013853990912</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-743488475874353153</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-743501818358042625</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,20 +2013,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,20 +2039,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-1031843897373278208</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,20 +2117,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,7 +2143,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,7 +2156,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,20 +2169,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,11 +2195,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,33 +2221,33 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-985892254756884480</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,20 +2260,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1062308914354642944</t>
+          <t>t-987722164903251968</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,63 +2286,63 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-1035595539918848000</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,7 +2364,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-720931143055491072</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,46 +2403,46 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-621245283935121408</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,46 +2455,46 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-791266893470568448</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-791268686447378433</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-636384018599030785</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-859838431719030785</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,20 +2546,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,7 +2572,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-799981773354463232</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,20 +2598,20 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-799998393695305728</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-800091318642950144</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,46 +2637,46 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-758205502480388096</t>
+          <t>t-1034302397882015745</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-758575120290091008</t>
+          <t>t-1034317413309919232</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-1034572709651533825</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,59 +2689,59 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-1034867901902319618</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1034302397882015745</t>
+          <t>t-1034875857125425152</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1034317413309919232</t>
+          <t>t-1034886406957662208</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1034572709651533825</t>
+          <t>t-1034922534326738944</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1034867901902319618</t>
+          <t>t-1035345459290746880</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1034875857125425152</t>
+          <t>t-1035480584934514690</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,20 +2767,20 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1034886406957662208</t>
+          <t>t-1035555438882897926</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-1034922534326738944</t>
+          <t>t-1036020306895413248</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,33 +2793,33 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1035345459290746880</t>
+          <t>t-1036935289485316096</t>
         </is>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1035480584934514690</t>
+          <t>t-1037072521940623360</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1035555438882897926</t>
+          <t>t-1037363401314455553</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-1036020306895413248</t>
+          <t>t-1037404586812821505</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1036935289485316096</t>
+          <t>t-1037450313920393218</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1037072521940623360</t>
+          <t>t-1037475943969898497</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,7 +2871,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-1037363401314455553</t>
+          <t>t-1037727143038517248</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,7 +2884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1037404586812821505</t>
+          <t>t-1037749001658032128</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,20 +2897,20 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1037450313920393218</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1037475943969898497</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,33 +2923,33 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1037727143038517248</t>
+          <t>t-1021604631217164289</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1037749001658032128</t>
+          <t>t-1021652512343031808</t>
         </is>
       </c>
       <c r="B193" t="n">
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-1021683870188503041</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,20 +2962,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-1021786238024527873</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-530194842861580288</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-715206020902084609</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,20 +3014,20 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-746718356405882880</t>
+          <t>t-715208550243557376</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-715210823002562560</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-715215011178803200</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,37 +3053,37 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-820042974197334018</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,46 +3118,46 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1054153981998575616</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-1026272267364253698</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-594878604397432832</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,46 +3209,46 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,24 +3261,24 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1000764381108555776</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -3313,33 +3313,33 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,20 +3352,20 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1037619174145712128</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,63 +3378,63 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-705116084911763456</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-984477965856772096</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,20 +3443,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-984491425478971393</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-727758683510329344</t>
+          <t>t-984517270725644288</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-727889856274247680</t>
+          <t>t-985567499843489798</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-946151169231114241</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,33 +3508,33 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,11 +3547,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-754470366408507392</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,20 +3586,20 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-817123537488084993</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-698124151282864129</t>
+          <t>t-833086724096028673</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-698267386730975232</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,24 +3651,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-698288943490535428</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-698457478183301120</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-698469723680464897</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-698599200850898944</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-698812315353903104</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,24 +3716,24 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,7 +3755,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-698124151282864129</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-698267386730975232</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-698288943490535428</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,33 +3794,33 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-698457478183301120</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-698469723680464897</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-698599200850898944</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,11 +3833,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-698812315353903104</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,46 +3872,46 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-741029103147442176</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B267" t="n">
         <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,59 +3924,59 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,11 +3989,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-862378347007025154</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,46 +4041,46 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-573281947792883712</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B279" t="n">
         <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,46 +4093,46 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-787849177581649920</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,11 +4145,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,20 +4184,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,37 +4210,37 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B291" t="n">
         <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B292" t="n">
         <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -4249,33 +4249,33 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,37 +4288,37 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-860196024056414208</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-1057298961642471425</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-671722697408290816</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,20 +4379,20 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-667433104118833152</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B304" t="n">
         <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,24 +4405,24 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-992231007083421698</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,24 +4431,24 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-992892560405250048</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-1041361257410904064</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-1041679427464298496</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-914224756555055104</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-636961984953630720</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,20 +4535,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-716262349536149504</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-655890642334257152</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,20 +4587,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,24 +4639,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4665,63 +4665,63 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1025467650649014283</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1025523844994412544</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1025538626191380480</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1026286692037222401</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-1026301775203037184</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,20 +4743,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1026820332710252544</t>
+          <t>t-853267425386803200</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-1027725663703363584</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,20 +4782,20 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,20 +4808,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-1016527492478328832</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,46 +4834,46 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-830540407763300352</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,11 +4886,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-850386711385260034</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,20 +4912,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-863757133304795136</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B345" t="n">
         <v>1</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,33 +4938,33 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-860879398387556352</t>
+          <t>t-772460103026868224</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,37 +4990,37 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,33 +5029,33 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,7 +5068,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-996488939933401088</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,20 +5094,20 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-855194797681897472</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-855248575567147008</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,11 +5172,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-519370037812277248</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -5185,11 +5185,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -5198,24 +5198,24 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5224,46 +5224,46 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-907371676148670465</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-635444360306368512</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,115 +5276,115 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-522926675542421504</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>1</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-642554131211755524</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-542806015075713026</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -5393,59 +5393,59 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-621860106481762304</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-951835055445413893</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,37 +5458,37 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-819866466162012160</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,7 +5510,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-629222720161640449</t>
+          <t>t-1022200671666401281</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,46 +5549,46 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-744549085244334080</t>
+          <t>t-538351189679939584</t>
         </is>
       </c>
       <c r="B394" t="n">
         <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-744630770116005888</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-745023417267724289</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-745961763473080321</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,24 +5601,24 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-746461142604668928</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,46 +5627,46 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-914844848359985152</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-915131811310714880</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,11 +5679,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-915495031691235329</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
         <v>1</v>
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-915561177966505984</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,20 +5705,20 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-954338199610019841</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-954407598069084160</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,7 +5731,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-954798702530412546</t>
+          <t>t-869830075268685825</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-955111272852414464</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-955374632034594816</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,33 +5770,33 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-955380505121259520</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-955409675251482624</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-955739643634421760</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-955742558189162496</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,20 +5822,20 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-955766281730445313</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-955807241533304833</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-956101750120857601</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-956220929067151360</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-956413340225589248</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,24 +5887,24 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-956438932681523200</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-956447631714279424</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>0</v>
@@ -5913,24 +5913,24 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-956464588559671297</t>
+          <t>t-538674754086244353</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-956513066228834304</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,46 +5952,46 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,7 +6004,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -6017,11 +6017,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-552766016325840896</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,20 +6030,20 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -6056,11 +6056,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,24 +6069,24 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,11 +6108,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
         <v>1</v>
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,7 +6134,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,46 +6147,46 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B440" t="n">
         <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,11 +6212,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
         <v>1</v>
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,24 +6238,24 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6264,11 +6264,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
         <v>1</v>
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B455" t="n">
         <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-594549643134009344</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,24 +6407,24 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-820214611416928256</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,72 +6433,72 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-612221773757681664</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,37 +6511,37 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-583486848426713088</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,24 +6576,24 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-817303376253882368</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
         <v>1</v>
@@ -6615,7 +6615,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-587481090845179905</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,20 +6628,20 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,11 +6654,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-1004612435792232448</t>
+          <t>t-720146113794183169</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C479" t="n">
         <v>1</v>
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-1005827335977885696</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-692403922451992576</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,37 +6719,37 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B485" t="n">
         <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-897572628667478020</t>
+          <t>t-776349771640496128</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
         <v>1</v>
@@ -6758,33 +6758,33 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,11 +6797,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
         <v>1</v>
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,11 +6823,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
         <v>1</v>
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-740249467828482048</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
         <v>1</v>
@@ -6862,11 +6862,11 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
         <v>1</v>
@@ -6875,33 +6875,33 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,11 +6914,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-1041726034662633472</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
         <v>1</v>
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,46 +6940,46 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B501" t="n">
         <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-643112220348534784</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,11 +6992,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,20 +7018,20 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>0</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,63 +7044,63 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-676501548063657984</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B511" t="n">
         <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
         <v>1</v>
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,20 +7122,20 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,37 +7148,37 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" t="n">
         <v>1</v>
@@ -7187,33 +7187,33 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-905976569503592449</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-906394228602949632</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-906936222282547201</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,20 +7226,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-906965286787710976</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-907173357510184965</t>
+          <t>t-737563920496349185</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,33 +7252,33 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-907196691270569985</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,46 +7304,46 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-955559981331419136</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1003659615115141120</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,33 +7369,33 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,33 +7408,33 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-801835115894755328</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,20 +7447,20 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-495525926722367488</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7473,50 +7473,50 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-590545916886659072</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-827575866729361408</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,37 +7525,37 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-990385513898094592</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,46 +7564,46 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,7 +7616,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,11 +7629,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
         <v>0</v>
@@ -7642,11 +7642,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C555" t="n">
         <v>1</v>
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-674391856298385408</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,11 +7681,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-674458539629219844</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C558" t="n">
         <v>1</v>
@@ -7694,33 +7694,33 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-790900222368976896</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-790909371781746688</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,20 +7733,20 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-791594802844434434</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-958848005502681088</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-959068004729475072</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,11 +7772,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
         <v>0</v>
@@ -7785,20 +7785,20 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-1006233702052057088</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,20 +7811,20 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-931841011340296192</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,46 +7863,46 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B573" t="n">
         <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,46 +7915,46 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,59 +7993,59 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-970475324591915008</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-727016962102980608</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-727141031607595008</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,59 +8071,59 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-732742567545077761</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B588" t="n">
         <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-732880819631460356</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-732926405818753025</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-733131015837745153</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-733131209660735493</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-733188233803128832</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-733201290151514113</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,7 +8162,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-777605888655761409</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-778041943855026178</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,37 +8188,37 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-778431677144018944</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-869476060991152129</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,46 +8240,46 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-605261202822807552</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-605672293654654976</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,20 +8409,20 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,24 +8448,24 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-736424760335179778</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,24 +8656,24 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-924905228415193088</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
         <v>1</v>
@@ -8682,20 +8682,20 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,11 +8708,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-756176490119647232</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,20 +8786,20 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B643" t="n">
         <v>1</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-830849870890102784</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-830867426568867840</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8838,46 +8838,46 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B649" t="n">
         <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,11 +8968,11 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,24 +8981,24 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B658" t="n">
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C659" t="n">
         <v>1</v>
@@ -9007,24 +9007,24 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C661" t="n">
         <v>1</v>
@@ -9033,24 +9033,24 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-757365069608923136</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-802829831633108992</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-929369497420685312</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-799444908029284352</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,11 +9098,11 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-799480577057583104</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
         <v>0</v>
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-852718859765202945</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-852739972473868290</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-922457591313137664</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,24 +9189,24 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-922793297873010689</t>
         </is>
       </c>
       <c r="B674" t="n">
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-540747270207991808</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-702026039967531008</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,20 +9254,20 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-708854826730295296</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,20 +9280,20 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-801652200724451332</t>
+          <t>t-859771332908777474</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-919895715089932288</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-544020486527528960</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,37 +9332,37 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-965551093982769152</t>
+          <t>t-993018034288705536</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-930542567199997958</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-1039555557609201664</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,11 +9423,11 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
         <v>1</v>
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-801684041787273216</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-558523740888109056</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-832028212376985600</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-832064333504933888</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-706439330877714432</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,59 +9592,59 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B705" t="n">
         <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-761430337377349632</t>
+          <t>t-936534965277294597</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-775600763481436160</t>
+          <t>t-936606274795462656</t>
         </is>
       </c>
       <c r="B707" t="n">
         <v>1</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-757432883531304960</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,20 +9683,20 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-795497536291094528</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-777104599379423233</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-777106884058763264</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,59 +9748,59 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B719" t="n">
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-863292024522395649</t>
+          <t>t-820218394255339521</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-792051379564969985</t>
+          <t>t-697592269315010562</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,20 +9813,20 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-697721034691096580</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-737450472194211841</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-737498199435317252</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9930,13 +9930,39 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-928096679089209344</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>t-935334721793306624</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-935382314166693889</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>1</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
